--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjeev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F900651-8C8D-465A-A2CA-64E0B7F596A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B84AE-2A6C-4222-A29D-4DAAF3B18BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="213">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>ON</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2765,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2822,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2892,9 +2901,6 @@
       <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="6">
-        <v>40444</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2907,13 +2913,22 @@
         <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
         <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2984,7 +2999,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3007,13 +3022,22 @@
         <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8">
         <v>120</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3024,7 +3048,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -3037,24 +3061,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>70</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B84AE-2A6C-4222-A29D-4DAAF3B18BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93688B-2D66-45E1-B877-43D52C5BCFDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="213">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,25 +158,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
     <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
   </si>
   <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
@@ -721,6 +703,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Marriage Before Death</t>
+  </si>
+  <si>
+    <t>Unique First name Families</t>
+  </si>
+  <si>
+    <t>Marriage before Divorced</t>
+  </si>
+  <si>
+    <t>Sibling Spacing</t>
+  </si>
+  <si>
+    <t>Check if Marriage date is before Death date</t>
+  </si>
+  <si>
+    <t>Check if all first names in families are unique</t>
   </si>
 </sst>
 </file>
@@ -2043,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2068,69 +2068,69 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2139,39 +2139,39 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2180,21 +2180,21 @@
         <v>130</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -2203,21 +2203,21 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E15">
         <v>110</v>
@@ -2226,21 +2226,21 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E16">
         <v>140</v>
@@ -2249,21 +2249,21 @@
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -2272,21 +2272,21 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -2295,21 +2295,21 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2318,21 +2318,21 @@
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -2341,21 +2341,21 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -2364,7 +2364,149 @@
         <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2421,16 +2563,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2438,16 +2580,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2455,16 +2597,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2472,16 +2614,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,16 +2631,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2506,16 +2648,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2523,16 +2665,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2540,16 +2682,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2557,16 +2699,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2596,37 +2738,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2649,7 +2791,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2665,7 +2807,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2690,7 +2832,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2715,7 +2857,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2740,7 +2882,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2829,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2878,13 +3020,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2904,16 +3046,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2928,18 +3070,18 @@
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -2953,13 +3095,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -2973,13 +3115,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -2993,13 +3135,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3013,16 +3155,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -3037,18 +3179,18 @@
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -3061,43 +3203,168 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
       <c r="B14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14">
         <v>30</v>
       </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3108,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3143,6 +3410,166 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3258,475 +3685,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikasbhat/Documents/GitHub/SSW-555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93688B-2D66-45E1-B877-43D52C5BCFDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93132470-97FF-9B43-BBE3-58193AEC57CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="215">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>Check if all first names in families are unique</t>
+  </si>
+  <si>
+    <t>Birth date of an individual should occur before marriage date</t>
+  </si>
+  <si>
+    <t>Marriage date of an indivdual should occur before divorce date</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1074,7 +1080,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2045,22 +2051,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>203</v>
       </c>
@@ -2128,16 +2134,16 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" s="18"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>109</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>118</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -2407,13 +2413,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>209</v>
       </c>
+      <c r="C24" s="17" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="s">
         <v>179</v>
       </c>
@@ -2424,12 +2433,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
       </c>
       <c r="D25" t="s">
         <v>179</v>
@@ -2441,7 +2453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -2492,7 +2504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -2532,16 +2544,16 @@
       <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2558,7 +2570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2643,7 +2655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2726,47 +2738,47 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>158</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -2805,7 +2817,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>161</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>162</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>163</v>
       </c>
@@ -2920,17 +2932,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>41899</v>
       </c>
@@ -2977,19 +2989,19 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3018,7 +3030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -3182,7 +3194,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3202,7 +3214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>118</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -3302,7 +3314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -3323,7 +3335,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3343,7 +3355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
     </row>
   </sheetData>
@@ -3381,9 +3393,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3512,7 +3524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -3532,7 +3544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -3552,7 +3564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -3587,9 +3599,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3632,9 +3644,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3677,13 +3689,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
@@ -3694,7 +3706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -3749,7 +3761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -3760,7 +3772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -3815,7 +3827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -3848,7 +3860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -3859,7 +3871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -3870,7 +3882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -3881,7 +3893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -3892,7 +3904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -3903,7 +3915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -3936,7 +3948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -3947,7 +3959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -3958,7 +3970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -3969,7 +3981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -3980,7 +3992,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -3991,7 +4003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -4068,7 +4080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -4079,7 +4091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -4090,7 +4102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -4101,7 +4113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -4112,7 +4124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -4123,7 +4135,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4134,7 +4146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -4145,7 +4157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>151</v>
       </c>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93688B-2D66-45E1-B877-43D52C5BCFDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD534D36-246C-4AF0-8178-C61C84BF3363}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="220">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>Sprint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -721,6 +717,30 @@
   </si>
   <si>
     <t>Check if all first names in families are unique</t>
+  </si>
+  <si>
+    <t>Birth date of an individual should occur before marriage date</t>
+  </si>
+  <si>
+    <t>Marriage date of an indivdual should occur before divorce date</t>
+  </si>
+  <si>
+    <t>Things to do:</t>
+  </si>
+  <si>
+    <t>Things to avoid:</t>
+  </si>
+  <si>
+    <t>Communicate better</t>
+  </si>
+  <si>
+    <t>Plan ahead of deadlines</t>
+  </si>
+  <si>
+    <t>Not communicating</t>
+  </si>
+  <si>
+    <t>Starting work on assignments near deadline</t>
   </si>
 </sst>
 </file>
@@ -1145,6 +1165,9 @@
                 <c:pt idx="0">
                   <c:v>41899</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>41917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1155,7 +1178,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,15 +2071,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
@@ -2068,69 +2094,69 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>178</v>
-      </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
         <v>179</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>182</v>
-      </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2139,39 +2165,39 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="D11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="F11" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2180,21 +2206,21 @@
         <v>130</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -2203,21 +2229,21 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15">
         <v>110</v>
@@ -2226,21 +2252,21 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16">
         <v>140</v>
@@ -2249,21 +2275,21 @@
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -2272,21 +2298,21 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -2295,21 +2321,21 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2318,21 +2344,21 @@
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -2341,21 +2367,21 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -2364,7 +2390,7 @@
         <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2372,13 +2398,13 @@
         <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22">
         <v>30</v>
@@ -2392,13 +2418,13 @@
         <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -2412,10 +2438,13 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -2429,10 +2458,13 @@
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -2446,10 +2478,10 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26">
         <v>30</v>
@@ -2463,10 +2495,10 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -2480,10 +2512,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -2497,10 +2529,10 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -2529,7 +2561,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2537,7 +2569,7 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2563,16 +2595,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2580,16 +2612,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2597,16 +2629,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,16 +2646,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2631,16 +2663,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2648,16 +2680,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2665,16 +2697,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2682,16 +2714,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2699,16 +2731,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2722,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2738,37 +2770,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2791,7 +2823,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2807,7 +2839,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2832,7 +2864,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2857,7 +2889,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2882,7 +2914,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2914,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2955,10 +2987,37 @@
         <v>41899</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>41917</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>317</v>
+      </c>
+      <c r="E3">
+        <v>230</v>
+      </c>
+      <c r="F3" s="9">
+        <f>(D3-D2)/E3*60</f>
+        <v>82.695652173913047</v>
       </c>
     </row>
   </sheetData>
@@ -2971,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2984,7 +3043,7 @@
     <col min="3" max="3" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
   </cols>
@@ -3020,16 +3079,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3043,19 +3102,22 @@
       <c r="H2">
         <v>90</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3070,21 +3132,21 @@
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3092,19 +3154,28 @@
       <c r="F4">
         <v>40</v>
       </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3112,19 +3183,28 @@
       <c r="F5">
         <v>70</v>
       </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -3132,19 +3212,28 @@
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
         <v>204</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3152,19 +3241,28 @@
       <c r="F7">
         <v>60</v>
       </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -3178,22 +3276,22 @@
       <c r="H8">
         <v>15</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>206</v>
+      <c r="I8" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
         <v>204</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3201,19 +3299,28 @@
       <c r="F9">
         <v>80</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -3224,16 +3331,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3244,16 +3351,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -3264,16 +3371,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3284,16 +3391,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -3304,16 +3411,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>30</v>
@@ -3325,16 +3432,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>30</v>
@@ -3345,16 +3452,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -3364,7 +3471,34 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3414,16 +3548,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3434,16 +3568,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3454,16 +3588,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -3474,16 +3608,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -3494,16 +3628,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -3514,16 +3648,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3534,16 +3668,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3554,16 +3688,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3685,475 +3819,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallv/Documents/GitHub/SSW-555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD534D36-246C-4AF0-8178-C61C84BF3363}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D677C2-DF3B-F84E-877C-C23B5EAA6A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="227">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,9 +178,6 @@
     <t>Marriage should not occur during marriage to another spouse</t>
   </si>
   <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
     <t>There should be fewer than 15 siblings in a family</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
   </si>
   <si>
     <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
   </si>
   <si>
     <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
@@ -742,16 +736,52 @@
   <si>
     <t>Starting work on assignments near deadline</t>
   </si>
+  <si>
+    <t>XP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaopeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>397551318@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallv0221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -760,26 +790,31 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -791,6 +826,12 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -889,20 +930,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -910,78 +951,78 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -999,7 +1040,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1023,7 +1064,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1094,7 +1135,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1136,7 +1177,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2071,22 +2112,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2094,7 +2135,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
@@ -2103,101 +2144,118 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="B4" t="s">
         <v>177</v>
       </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="E5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="D9" s="18"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>187</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2206,21 +2264,21 @@
         <v>130</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -2229,21 +2287,21 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>110</v>
@@ -2252,21 +2310,21 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>140</v>
@@ -2275,21 +2333,21 @@
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -2298,21 +2356,21 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -2321,21 +2379,21 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2344,21 +2402,21 @@
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -2367,21 +2425,21 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -2390,21 +2448,21 @@
         <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E22">
         <v>30</v>
@@ -2413,18 +2471,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -2433,18 +2491,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -2453,18 +2511,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -2473,15 +2531,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26">
         <v>30</v>
@@ -2490,15 +2551,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -2507,15 +2571,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -2524,15 +2588,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -2550,6 +2614,7 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{285C69D3-24AC-4282-A325-9BC5E4FD7828}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{97FF6A7C-FE9C-4D92-9AF8-B8813F641DC2}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{6DA561DC-32E2-3A4E-A85F-5BBF7F155BA1}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{7417ADAF-BA1C-C64C-81F1-00A06B5C9ED8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2564,16 +2629,16 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2590,157 +2655,157 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
         <v>202</v>
       </c>
-      <c r="E4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
         <v>202</v>
       </c>
-      <c r="E5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
         <v>202</v>
-      </c>
-      <c r="E10" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2758,49 +2823,49 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="4" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2821,9 +2886,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2837,9 +2902,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2862,9 +2927,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2887,9 +2952,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2912,9 +2977,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2938,6 +3003,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -2952,17 +3018,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +3048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>41899</v>
       </c>
@@ -2999,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>41917</v>
       </c>
@@ -3032,23 +3098,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3077,18 +3143,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3103,21 +3169,21 @@
         <v>90</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3132,21 +3198,21 @@
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>202</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3161,21 +3227,21 @@
         <v>40</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>202</v>
-      </c>
-      <c r="D5" t="s">
-        <v>204</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3190,21 +3256,21 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -3219,21 +3285,21 @@
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3248,21 +3314,21 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -3277,21 +3343,21 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3306,21 +3372,21 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -3329,18 +3395,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3349,18 +3415,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -3369,18 +3435,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3389,18 +3455,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -3409,18 +3475,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>30</v>
@@ -3430,18 +3496,18 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16">
         <v>30</v>
@@ -3450,18 +3516,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -3470,34 +3536,34 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14">
       <c r="B20" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14">
+      <c r="B21" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:6" ht="14">
+      <c r="B22" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14">
+      <c r="B24" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14">
+      <c r="B25" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="26" spans="1:6" ht="28">
+      <c r="B26" s="1" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3515,9 +3581,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3546,18 +3612,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3566,18 +3632,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3586,18 +3652,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -3606,18 +3672,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -3626,18 +3692,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -3646,18 +3712,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3666,18 +3732,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3686,18 +3752,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3721,9 +3787,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3766,9 +3832,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3807,490 +3873,491 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
       <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34">
+      <c r="A2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34">
+      <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" ht="34">
+      <c r="A12" t="s">
         <v>118</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51">
       <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="68">
+      <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34">
+      <c r="A15" t="s">
         <v>121</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="51">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="136">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="12" t="s">
+    <row r="30" spans="1:3" ht="17">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" ht="17">
+      <c r="A31" t="s">
         <v>137</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" ht="34">
+      <c r="A32" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" ht="17">
+      <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" ht="34">
+      <c r="A34" t="s">
         <v>140</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" ht="51">
+      <c r="A35" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" ht="34">
+      <c r="A37" t="s">
         <v>143</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" ht="34">
+      <c r="A38" t="s">
         <v>144</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" ht="34">
+      <c r="A39" t="s">
         <v>145</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" ht="34">
+      <c r="A40" t="s">
         <v>146</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" ht="34">
+      <c r="A41" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="34">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" ht="34">
+      <c r="A43" t="s">
         <v>149</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallv/Documents/GitHub/SSW-555/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D677C2-DF3B-F84E-877C-C23B5EAA6A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7414ED55-339F-4BA1-9951-F5BD20B412F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="682" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="225">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -725,16 +725,7 @@
     <t>Things to avoid:</t>
   </si>
   <si>
-    <t>Communicate better</t>
-  </si>
-  <si>
-    <t>Plan ahead of deadlines</t>
-  </si>
-  <si>
     <t>Not communicating</t>
-  </si>
-  <si>
-    <t>Starting work on assignments near deadline</t>
   </si>
   <si>
     <t>XP</t>
@@ -771,6 +762,9 @@
   <si>
     <t>No more than five siblings should be born at the same time</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve communication</t>
   </si>
 </sst>
 </file>
@@ -778,8 +772,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -930,20 +924,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -951,78 +945,78 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1040,7 +1034,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1064,7 +1058,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1135,7 +1129,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1177,7 +1171,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1209,6 +1203,9 @@
                 <c:pt idx="1">
                   <c:v>41917</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>41804</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1222,7 +1219,10 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,19 +2112,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
@@ -2197,19 +2197,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2539,7 +2539,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
         <v>201</v>
@@ -2559,7 +2559,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
         <v>201</v>
@@ -2623,19 +2623,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -2806,6 +2806,142 @@
       </c>
       <c r="E10" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2820,16 +2956,16 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3012,19 +3148,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3055,9 +3191,6 @@
       <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -3070,20 +3203,41 @@
         <v>41917</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>317</v>
       </c>
       <c r="E3">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>82.695652173913047</v>
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>41804</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>379</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>43.764705882352942</v>
       </c>
     </row>
   </sheetData>
@@ -3096,25 +3250,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3202,369 +3356,44 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4" s="17"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5" s="17"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="C6" s="17"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="C7" s="17"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>120</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="C8" s="17"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="C9" s="17"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>80</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14">
-      <c r="B20" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="B21" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14">
-      <c r="B22" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14">
-      <c r="B24" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14">
-      <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28">
-      <c r="B26" s="1" t="s">
-        <v>217</v>
-      </c>
+    <row r="16" spans="1:9">
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3575,15 +3404,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3614,16 +3446,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3631,19 +3463,28 @@
       <c r="F2">
         <v>80</v>
       </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -3651,126 +3492,44 @@
       <c r="F3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>80</v>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>80</v>
+      <c r="B6" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>80</v>
+      <c r="B7" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>80</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3781,15 +3540,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3816,6 +3578,34 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3832,9 +3622,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3873,17 +3663,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>107</v>
       </c>
@@ -3894,7 +3684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34">
+    <row r="2" spans="1:3" ht="31.5">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -3905,7 +3695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3916,7 +3706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3927,7 +3717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -3938,7 +3728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -3949,7 +3739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3960,7 +3750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -3971,7 +3761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3982,7 +3772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -3993,7 +3783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34">
+    <row r="11" spans="1:3" ht="31.5">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -4004,7 +3794,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34">
+    <row r="12" spans="1:3" ht="31.5">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -4015,7 +3805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51">
+    <row r="13" spans="1:3" ht="47.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -4026,7 +3816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68">
+    <row r="14" spans="1:3" ht="63">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -4034,10 +3824,10 @@
         <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -4045,10 +3835,10 @@
         <v>165</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -4059,7 +3849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:3" ht="31.5">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -4070,7 +3860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -4081,7 +3871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17">
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -4092,7 +3882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17">
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -4103,7 +3893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34">
+    <row r="21" spans="1:3" ht="31.5">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -4114,7 +3904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34">
+    <row r="22" spans="1:3" ht="31.5">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -4125,7 +3915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34">
+    <row r="23" spans="1:3" ht="31.5">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -4136,7 +3926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34">
+    <row r="24" spans="1:3" ht="31.5">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -4147,7 +3937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51">
+    <row r="25" spans="1:3" ht="47.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -4158,7 +3948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34">
+    <row r="26" spans="1:3" ht="31.5">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -4169,7 +3959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136">
+    <row r="27" spans="1:3" ht="126">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -4180,7 +3970,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17">
+    <row r="28" spans="1:3" ht="15.75">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4191,7 +3981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34">
+    <row r="29" spans="1:3" ht="31.5">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -4202,7 +3992,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17">
+    <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -4213,7 +4003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17">
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -4224,7 +4014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34">
+    <row r="32" spans="1:3" ht="31.5">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -4235,7 +4025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17">
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -4246,7 +4036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34">
+    <row r="34" spans="1:3" ht="31.5">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -4257,7 +4047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51">
+    <row r="35" spans="1:3" ht="47.25">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -4268,7 +4058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34">
+    <row r="36" spans="1:3" ht="31.5">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -4279,7 +4069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34">
+    <row r="37" spans="1:3" ht="31.5">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -4290,7 +4080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34">
+    <row r="38" spans="1:3" ht="31.5">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -4301,7 +4091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34">
+    <row r="39" spans="1:3" ht="31.5">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -4312,7 +4102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34">
+    <row r="40" spans="1:3" ht="31.5">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -4323,7 +4113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34">
+    <row r="41" spans="1:3" ht="31.5">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -4334,7 +4124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34">
+    <row r="42" spans="1:3" ht="31.5">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -4345,7 +4135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34">
+    <row r="43" spans="1:3" ht="31.5">
       <c r="A43" t="s">
         <v>149</v>
       </c>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallv/Documents/GitHub/SSW-555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D677C2-DF3B-F84E-877C-C23B5EAA6A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B22A98-FE55-3246-A6AF-3445DD1DA683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="228">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -770,6 +770,10 @@
   </si>
   <si>
     <t>No more than five siblings should be born at the same time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +929,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -955,6 +959,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2112,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2120,7 +2125,7 @@
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="82.5" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
@@ -3098,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3371,8 +3376,8 @@
       <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>203</v>
+      <c r="I9" s="19" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3459,7 +3464,7 @@
       <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C14" t="s">
@@ -3473,13 +3478,22 @@
       </c>
       <c r="F14">
         <v>80</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C15" t="s">
@@ -3494,13 +3508,21 @@
       <c r="F15">
         <v>80</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="14">
       <c r="A16" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C16" t="s">
@@ -3582,6 +3604,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallv/Documents/GitHub/SSW-555/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D677C2-DF3B-F84E-877C-C23B5EAA6A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401F60B-F0A7-4003-BFE2-347C4C25023C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="230">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>US42</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
   <si>
     <t>Dates before current date</t>
@@ -772,14 +769,26 @@
     <t>No more than five siblings should be born at the same time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Use Github Better</t>
+  </si>
+  <si>
+    <t>Learn to use Travis</t>
+  </si>
+  <si>
+    <t>Not using Github</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -930,20 +939,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -951,78 +960,78 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1040,7 +1049,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1064,7 +1073,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1135,7 +1144,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1177,7 +1186,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1209,6 +1218,9 @@
                 <c:pt idx="1">
                   <c:v>41917</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>41805</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1223,6 +1235,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,21 +2125,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A36" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
@@ -2135,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
@@ -2146,75 +2161,75 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>175</v>
-      </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
         <v>176</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>179</v>
-      </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>182</v>
-      </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2232,16 +2247,16 @@
         <v>61</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="F11" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2252,10 +2267,10 @@
         <v>82</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -2264,7 +2279,7 @@
         <v>130</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2275,10 +2290,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -2287,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2298,10 +2313,10 @@
         <v>77</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15">
         <v>110</v>
@@ -2310,7 +2325,7 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2321,10 +2336,10 @@
         <v>94</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>140</v>
@@ -2333,7 +2348,7 @@
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2344,10 +2359,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -2356,7 +2371,7 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2367,10 +2382,10 @@
         <v>71</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -2379,7 +2394,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2390,10 +2405,10 @@
         <v>79</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2402,7 +2417,7 @@
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2413,10 +2428,10 @@
         <v>85</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -2425,7 +2440,7 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2436,10 +2451,10 @@
         <v>76</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -2448,7 +2463,7 @@
         <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2456,13 +2471,13 @@
         <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22">
         <v>30</v>
@@ -2476,13 +2491,13 @@
         <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -2496,13 +2511,13 @@
         <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -2519,10 +2534,10 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -2536,13 +2551,13 @@
         <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>30</v>
@@ -2556,13 +2571,13 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -2579,7 +2594,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -2593,16 +2608,128 @@
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29">
         <v>30</v>
       </c>
       <c r="F29">
         <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="47.25">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2623,19 +2750,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -2666,10 +2793,10 @@
         <v>82</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2683,15 +2810,15 @@
         <v>66</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
@@ -2700,15 +2827,15 @@
         <v>77</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
@@ -2717,15 +2844,15 @@
         <v>94</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
@@ -2734,15 +2861,15 @@
         <v>67</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
@@ -2751,15 +2878,15 @@
         <v>71</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
@@ -2768,15 +2895,15 @@
         <v>79</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>115</v>
@@ -2785,15 +2912,15 @@
         <v>85</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>116</v>
@@ -2802,10 +2929,282 @@
         <v>76</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E10" t="s">
-        <v>202</v>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2823,49 +3222,49 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2888,7 +3287,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2904,7 +3303,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2929,7 +3328,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2954,7 +3353,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2979,7 +3378,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -3012,19 +3411,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3055,9 +3454,6 @@
       <c r="B2">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -3073,7 +3469,7 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>317</v>
@@ -3084,6 +3480,27 @@
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
         <v>82.695652173913047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>41805</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>365</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>
@@ -3096,25 +3513,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3151,10 +3568,10 @@
         <v>82</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3169,7 +3586,7 @@
         <v>90</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3180,10 +3597,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3198,7 +3615,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3209,10 +3626,10 @@
         <v>77</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3227,7 +3644,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3238,10 +3655,10 @@
         <v>94</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3256,7 +3673,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3267,10 +3684,10 @@
         <v>67</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -3285,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3296,10 +3713,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
         <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>202</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3314,7 +3731,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3325,16 +3742,16 @@
         <v>79</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3343,7 +3760,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3354,16 +3771,16 @@
         <v>85</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
         <v>201</v>
-      </c>
-      <c r="D9" t="s">
-        <v>202</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -3372,198 +3789,37 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="14">
-      <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14">
-      <c r="B20" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="B21" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14">
-      <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14">
-      <c r="B24" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14">
-      <c r="B25" s="1" t="s">
+    <row r="18" spans="2:2" ht="25.5">
+      <c r="B18" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28">
-      <c r="B26" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3575,15 +3831,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3613,163 +3869,260 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
+      <c r="B2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
-        <v>205</v>
+      <c r="B3" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" t="s">
-        <v>206</v>
+      <c r="B4" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5">
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5">
       <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
-        <v>207</v>
+      <c r="B6" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
       <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" t="s">
-        <v>165</v>
+      <c r="B7" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
         <v>201</v>
       </c>
-      <c r="D7" t="s">
-        <v>150</v>
-      </c>
       <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5">
       <c r="A8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
       <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
-        <v>151</v>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3781,15 +4134,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3816,6 +4169,118 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3832,9 +4297,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3873,17 +4338,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="A18:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>107</v>
       </c>
@@ -3894,18 +4359,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34">
+    <row r="2" spans="1:3" ht="31.5">
       <c r="A2" t="s">
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3916,7 +4381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3927,7 +4392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -3938,7 +4403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -3949,7 +4414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3960,7 +4425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -3971,18 +4436,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" t="s">
         <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -3993,7 +4458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34">
+    <row r="11" spans="1:3" ht="31.5">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -4001,10 +4466,10 @@
         <v>71</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -4015,7 +4480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51">
+    <row r="13" spans="1:3" ht="47.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -4026,7 +4491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68">
+    <row r="14" spans="1:3" ht="63">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -4034,21 +4499,21 @@
         <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5">
       <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -4059,7 +4524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:3" ht="31.5">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -4070,7 +4535,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -4081,7 +4546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17">
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -4092,7 +4557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17">
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -4103,7 +4568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34">
+    <row r="21" spans="1:3" ht="31.5">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -4114,7 +4579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34">
+    <row r="22" spans="1:3" ht="31.5">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -4125,7 +4590,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34">
+    <row r="23" spans="1:3" ht="31.5">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -4136,7 +4601,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34">
+    <row r="24" spans="1:3" ht="31.5">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -4147,7 +4612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51">
+    <row r="25" spans="1:3" ht="47.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -4158,7 +4623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34">
+    <row r="26" spans="1:3" ht="31.5">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -4169,7 +4634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136">
+    <row r="27" spans="1:3" ht="126">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -4177,10 +4642,10 @@
         <v>89</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4191,7 +4656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34">
+    <row r="29" spans="1:3" ht="31.5">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -4199,10 +4664,10 @@
         <v>91</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -4213,7 +4678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17">
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -4224,7 +4689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34">
+    <row r="32" spans="1:3" ht="31.5">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -4235,7 +4700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17">
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -4246,7 +4711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34">
+    <row r="34" spans="1:3" ht="31.5">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -4257,7 +4722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51">
+    <row r="35" spans="1:3" ht="47.25">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -4268,7 +4733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34">
+    <row r="36" spans="1:3" ht="31.5">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -4279,7 +4744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34">
+    <row r="37" spans="1:3" ht="31.5">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -4290,7 +4755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34">
+    <row r="38" spans="1:3" ht="31.5">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -4301,7 +4766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34">
+    <row r="39" spans="1:3" ht="31.5">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -4312,7 +4777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34">
+    <row r="40" spans="1:3" ht="31.5">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -4323,7 +4788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34">
+    <row r="41" spans="1:3" ht="31.5">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -4334,7 +4799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34">
+    <row r="42" spans="1:3" ht="31.5">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -4345,7 +4810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34">
+    <row r="43" spans="1:3" ht="31.5">
       <c r="A43" t="s">
         <v>149</v>
       </c>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401F60B-F0A7-4003-BFE2-347C4C25023C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC6FAD-78FB-40E8-864F-C0396291EDEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
                   <c:v>41917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41805</c:v>
+                  <c:v>41927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,8 +3413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>41805</v>
+        <v>41927</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -4136,7 +4136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC6FAD-78FB-40E8-864F-C0396291EDEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B429B7-AC3F-425F-9FA2-C75353126940}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2127,15 +2127,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B37"/>
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="3" max="3" width="67.625" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
@@ -2662,7 +2662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.5">
+    <row r="33" spans="1:4" ht="15.75">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5">
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5">
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="47.25">
+    <row r="37" spans="1:4" ht="31.5">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -2752,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E26"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3413,7 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3833,13 +3833,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>171</v>
@@ -3897,12 +3900,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>204</v>
+      <c r="B3" t="s">
+        <v>203</v>
       </c>
       <c r="C3" t="s">
         <v>171</v>
@@ -3926,12 +3929,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
+      <c r="B4" t="s">
+        <v>204</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3955,12 +3958,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
+      <c r="B5" t="s">
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>175</v>
@@ -3984,12 +3987,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>206</v>
+      <c r="B6" t="s">
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
@@ -4013,12 +4016,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>164</v>
+      <c r="B7" t="s">
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>200</v>
@@ -4042,12 +4045,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>93</v>
+      <c r="B8" t="s">
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>199</v>
@@ -4071,12 +4074,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="51">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>150</v>
+      <c r="B9" t="s">
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B429B7-AC3F-425F-9FA2-C75353126940}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D75C7-BCB6-45BB-8F25-482435A1555B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="794" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="230">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2752,15 +2752,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C18"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
@@ -2790,10 +2790,10 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
         <v>201</v>
@@ -2807,10 +2807,10 @@
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
         <v>201</v>
@@ -2824,7 +2824,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>199</v>
@@ -2841,7 +2841,7 @@
         <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>199</v>
@@ -2858,7 +2858,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>175</v>
@@ -2874,8 +2874,8 @@
       <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>71</v>
+      <c r="C7" t="s">
+        <v>66</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>171</v>
@@ -2891,8 +2891,8 @@
       <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>79</v>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>171</v>
@@ -2908,8 +2908,8 @@
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>85</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>175</v>
@@ -2922,11 +2922,11 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>76</v>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>199</v>
@@ -2943,7 +2943,7 @@
         <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>171</v>
@@ -2960,7 +2960,7 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>171</v>
@@ -2977,7 +2977,7 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>200</v>
@@ -2994,7 +2994,7 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>200</v>
@@ -3011,7 +3011,7 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>175</v>
@@ -3028,7 +3028,7 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>175</v>
@@ -3045,7 +3045,7 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>199</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>199</v>
@@ -3079,13 +3079,13 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>171</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3096,13 +3096,13 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>171</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3113,13 +3113,13 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>200</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3130,13 +3130,13 @@
         <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>200</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3147,13 +3147,13 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3164,13 +3164,13 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3181,31 +3181,18 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>199</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>229</v>
-      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3515,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3565,7 +3552,7 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>175</v>
@@ -3594,7 +3581,7 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>171</v>
@@ -3623,7 +3610,7 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>199</v>
@@ -3652,7 +3639,7 @@
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>199</v>
@@ -3681,7 +3668,7 @@
         <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>175</v>
@@ -3709,8 +3696,8 @@
       <c r="A7" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>71</v>
+      <c r="B7" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>200</v>
@@ -3738,8 +3725,8 @@
       <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>79</v>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>171</v>
@@ -3767,8 +3754,8 @@
       <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>85</v>
+      <c r="B9" t="s">
+        <v>151</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>200</v>
@@ -3834,7 +3821,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3872,11 +3859,11 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>76</v>
+      <c r="B2" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>171</v>
@@ -3905,7 +3892,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>171</v>
@@ -3934,7 +3921,7 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3963,7 +3950,7 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>175</v>
@@ -3992,7 +3979,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
@@ -4021,7 +4008,7 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>200</v>
@@ -4050,7 +4037,7 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>199</v>
@@ -4079,7 +4066,7 @@
         <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
@@ -4140,10 +4127,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
@@ -4176,7 +4166,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -4190,7 +4180,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -4204,7 +4194,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -4218,7 +4208,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -4232,7 +4222,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -4246,7 +4236,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -4260,7 +4250,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -4274,7 +4264,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -4341,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="A18:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D75C7-BCB6-45BB-8F25-482435A1555B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099D50B-4080-4785-BF19-891C7DDAF24F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="794" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="232">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -780,6 +780,12 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique First names </t>
+  </si>
+  <si>
+    <t>List Living single</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1214,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>41899</c:v>
                 </c:pt>
@@ -1226,10 +1232,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -2752,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3398,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3435,11 +3441,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>41899</v>
-      </c>
       <c r="B2">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3450,43 +3456,64 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>41917</v>
+        <v>41899</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="E3">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>82.695652173913047</v>
+        <v>131.25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>41927</v>
+        <v>41917</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="F4" s="9">
         <f>(D4-D3)/E4*60</f>
+        <v>-8.608695652173914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>41927</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>365</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(D5-D4)/E5*60</f>
         <v>19.2</v>
       </c>
     </row>
@@ -3821,7 +3848,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="E2" sqref="E2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4127,7 +4154,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4135,7 +4162,7 @@
     <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4175,7 +4202,22 @@
         <v>171</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4189,35 +4231,80 @@
         <v>171</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4231,7 +4318,22 @@
         <v>175</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4245,7 +4347,22 @@
         <v>175</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4259,21 +4376,51 @@
         <v>199</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>199</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4284,13 +4431,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="4" t="s">
@@ -4319,6 +4469,166 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4331,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099D50B-4080-4785-BF19-891C7DDAF24F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C9721-5FF4-4377-B240-C4935592FC67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="794" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2758,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3071,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
         <v>201</v>
@@ -3099,13 +3099,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>201</v>
@@ -3116,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>200</v>
@@ -3139,7 +3139,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>201</v>
@@ -3173,7 +3173,7 @@
         <v>86</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>201</v>
@@ -3184,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>199</v>
@@ -4154,7 +4154,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4442,7 +4442,7 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4641,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/TeamVOXSReport.xlsx
+++ b/TeamVOXSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS SE\SSW-555\Sanjeev Branch\SSW-555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C9721-5FF4-4377-B240-C4935592FC67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A6237-A57D-4F4E-BA66-D89BA15D640B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" tabRatio="794" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="214">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -617,30 +617,6 @@
   </si>
   <si>
     <t>Estimated Size</t>
-  </si>
-  <si>
-    <t>Husband should be a male and Wife should be a female</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death</t>
-  </si>
-  <si>
-    <t>The last name of all male members should be same</t>
-  </si>
-  <si>
-    <t>Age shouldn't be above 150</t>
-  </si>
-  <si>
-    <t>List all people who are above 30 and alive yet not married.</t>
-  </si>
-  <si>
-    <t>No one should be married before 14</t>
-  </si>
-  <si>
-    <t>siblings shouldn't marry each other</t>
-  </si>
-  <si>
-    <t>All individual and family ids should be unique</t>
   </si>
   <si>
     <r>
@@ -662,9 +638,6 @@
     </r>
   </si>
   <si>
-    <t>Maximum 15 siblings in a family</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -690,30 +663,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Marriage Before Death</t>
-  </si>
-  <si>
-    <t>Unique First name Families</t>
-  </si>
-  <si>
-    <t>Marriage before Divorced</t>
-  </si>
-  <si>
-    <t>Sibling Spacing</t>
-  </si>
-  <si>
-    <t>Check if Marriage date is before Death date</t>
-  </si>
-  <si>
-    <t>Check if all first names in families are unique</t>
-  </si>
-  <si>
-    <t>Birth date of an individual should occur before marriage date</t>
-  </si>
-  <si>
-    <t>Marriage date of an indivdual should occur before divorce date</t>
   </si>
   <si>
     <t>Things to do:</t>
@@ -758,18 +707,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>No more than five siblings should be born at the same time</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>No more than five siblings should be born at the same time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Use Github Better</t>
   </si>
   <si>
@@ -786,6 +727,9 @@
   </si>
   <si>
     <t>List Living single</t>
+  </si>
+  <si>
+    <t>List upcoming Birthdays</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1171,9 @@
                 <c:pt idx="2">
                   <c:v>41927</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>41957</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1244,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A38" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2156,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
@@ -2201,7 +2151,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>179</v>
@@ -2213,29 +2163,29 @@
         <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2259,21 +2209,21 @@
         <v>183</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5">
       <c r="A13" t="s">
         <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>184</v>
+        <v>150</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>175</v>
@@ -2285,18 +2235,18 @@
         <v>130</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" t="s">
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>185</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>171</v>
@@ -2308,21 +2258,21 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" t="s">
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>186</v>
+        <v>62</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E15">
         <v>110</v>
@@ -2331,21 +2281,21 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5">
       <c r="A16" t="s">
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>188</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E16">
         <v>140</v>
@@ -2354,18 +2304,18 @@
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" t="s">
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>187</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>175</v>
@@ -2377,18 +2327,18 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>189</v>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>171</v>
@@ -2400,18 +2350,18 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5">
       <c r="A19" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>190</v>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>171</v>
@@ -2423,18 +2373,18 @@
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5">
       <c r="A20" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>191</v>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>175</v>
@@ -2446,21 +2396,21 @@
         <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>193</v>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -2469,18 +2419,18 @@
         <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5">
       <c r="A22" t="s">
         <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>207</v>
+        <v>71</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="D22" t="s">
         <v>171</v>
@@ -2492,15 +2442,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" t="s">
         <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>208</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>171</v>
@@ -2512,15 +2462,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="31.5">
       <c r="A24" t="s">
         <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>175</v>
@@ -2532,15 +2482,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="47.25">
       <c r="A25" t="s">
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
+        <v>75</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>175</v>
@@ -2552,18 +2502,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" t="s">
         <v>121</v>
       </c>
       <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>223</v>
-      </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E26">
         <v>30</v>
@@ -2572,18 +2522,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" t="s">
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>225</v>
+        <v>76</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -2592,15 +2542,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" t="s">
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -2609,15 +2562,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -2631,10 +2587,10 @@
         <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>171</v>
@@ -2642,13 +2598,13 @@
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>171</v>
@@ -2656,41 +2612,41 @@
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>175</v>
@@ -2698,13 +2654,13 @@
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>175</v>
@@ -2712,30 +2668,107 @@
     </row>
     <row r="36" spans="1:4" ht="31.5">
       <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5">
+      <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="31.5">
-      <c r="A37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D37" t="s">
-        <v>199</v>
+    </row>
+    <row r="40" spans="1:4" ht="31.5">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2756,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2799,10 +2832,10 @@
         <v>150</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2816,10 +2849,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2833,10 +2866,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2850,10 +2883,10 @@
         <v>64</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2870,7 +2903,7 @@
         <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2887,7 +2920,7 @@
         <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2904,7 +2937,7 @@
         <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2921,7 +2954,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2935,10 +2968,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2955,7 +2988,7 @@
         <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2972,7 +3005,7 @@
         <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2986,10 +3019,10 @@
         <v>73</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3003,10 +3036,10 @@
         <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3023,7 +3056,7 @@
         <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3040,7 +3073,7 @@
         <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3054,10 +3087,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3074,7 +3107,7 @@
         <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3091,7 +3124,7 @@
         <v>171</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3099,16 +3132,16 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3116,16 +3149,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3133,16 +3166,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3150,16 +3183,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>175</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3167,16 +3200,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3184,21 +3217,153 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3404,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3517,6 +3682,27 @@
         <v>19.2</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>840</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(D6-D5)/E6*60</f>
+        <v>142.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3530,7 +3716,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3585,7 +3771,7 @@
         <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3600,7 +3786,7 @@
         <v>90</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3614,7 +3800,7 @@
         <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3629,7 +3815,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3640,10 +3826,10 @@
         <v>62</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3658,7 +3844,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3669,10 +3855,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3687,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3701,7 +3887,7 @@
         <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -3716,7 +3902,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3727,10 +3913,10 @@
         <v>66</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3745,7 +3931,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3759,7 +3945,7 @@
         <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -3774,7 +3960,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3785,10 +3971,10 @@
         <v>151</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3803,37 +3989,37 @@
         <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="25.5">
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3896,7 +4082,7 @@
         <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -3911,7 +4097,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3925,7 +4111,7 @@
         <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -3940,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3954,7 +4140,7 @@
         <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -3969,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3983,7 +4169,7 @@
         <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -3998,7 +4184,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4009,10 +4195,10 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -4027,7 +4213,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4038,10 +4224,10 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -4056,7 +4242,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4067,10 +4253,10 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -4085,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4096,10 +4282,10 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -4114,32 +4300,32 @@
         <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +4388,7 @@
         <v>171</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -4217,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4231,7 +4417,7 @@
         <v>171</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>35</v>
@@ -4246,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4254,13 +4440,13 @@
         <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4275,7 +4461,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4286,10 +4472,10 @@
         <v>93</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4304,7 +4490,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4318,7 +4504,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -4333,7 +4519,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4347,7 +4533,7 @@
         <v>175</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4362,7 +4548,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4373,10 +4559,10 @@
         <v>86</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -4391,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4399,13 +4585,13 @@
         <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4420,7 +4606,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4620,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4479,10 +4665,10 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4499,10 +4685,10 @@
         <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E3">
         <v>35</v>
@@ -4522,7 +4708,7 @@
         <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4533,16 +4719,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -4562,7 +4748,7 @@
         <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -4582,7 +4768,7 @@
         <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4599,10 +4785,10 @@
         <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -4619,10 +4805,10 @@
         <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4641,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4802,7 +4988,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5">
@@ -4813,7 +4999,7 @@
         <v>164</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
